--- a/config/report/A/Report_Play lesson_Hello!Lesson 1_1.xlsx
+++ b/config/report/A/Report_Play lesson_Hello!Lesson 1_1.xlsx
@@ -316,14 +316,14 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -732,192 +732,192 @@
         <v>10</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5">
-        <f>COUNTIF(D:D,"PASS")</f>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""PASS"")))"),"0")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <f>COUNTIF(D:D,"FAIL")</f>
+      <c r="J2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""FAIL"")))"),"0")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
-        <f>COUNTIF(D:D,"SKIP")</f>
+      <c r="K2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""SKIP"")))"),"0")</f>
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s" s="0">
@@ -926,29 +926,29 @@
       <c r="E6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D6">
@@ -4446,8 +4446,8 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addValueIndexVariableFile")</f>
-        <v>addValueIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B81" s="28" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
